--- a/Midterm-exam/evidence/spreadsheets/per_site/www.eidsvoll.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.eidsvoll.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6091.512</v>
+        <v>5876.948</v>
       </c>
       <c r="C2">
-        <v>4547.523999999999</v>
+        <v>4709.352000000001</v>
       </c>
       <c r="D2">
-        <v>636</v>
+        <v>535</v>
       </c>
       <c r="E2">
-        <v>10743.02345</v>
+        <v>10601.805100000001</v>
       </c>
       <c r="F2">
-        <v>149.5</v>
+        <v>138</v>
       </c>
       <c r="G2">
         <v>0.005622565804037638</v>
       </c>
       <c r="H2">
-        <v>5643.589229872861</v>
+        <v>5484.563178785173</v>
       </c>
       <c r="I2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2">
-        <v>1431556</v>
+        <v>1403268</v>
       </c>
       <c r="K2">
         <v>39</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6062.425</v>
+        <v>5977.017</v>
       </c>
       <c r="C3">
-        <v>4506.053</v>
+        <v>4697.207</v>
       </c>
       <c r="D3">
-        <v>569</v>
+        <v>722</v>
       </c>
       <c r="E3">
-        <v>10804.70735</v>
+        <v>10704.59185</v>
       </c>
       <c r="F3">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="G3">
         <v>0.005622565804037638</v>
       </c>
       <c r="H3">
-        <v>5670.524127443678</v>
+        <v>5825.971693900698</v>
       </c>
       <c r="I3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>1431536</v>
+        <v>1387961</v>
       </c>
       <c r="K3">
         <v>39</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6052.1759999999995</v>
+        <v>5880.314</v>
       </c>
       <c r="C4">
-        <v>4698.433999999999</v>
+        <v>4710.008</v>
       </c>
       <c r="D4">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="E4">
-        <v>10780.3955</v>
+        <v>10732.30855</v>
       </c>
       <c r="F4">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G4">
         <v>0.005622565804037638</v>
       </c>
       <c r="H4">
-        <v>5748.314408200821</v>
+        <v>5626.655589401842</v>
       </c>
       <c r="I4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4">
-        <v>1431529</v>
+        <v>1387967</v>
       </c>
       <c r="K4">
         <v>39</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6062.425</v>
+        <v>5880.314</v>
       </c>
       <c r="C5">
-        <v>4547.523999999999</v>
+        <v>4709.352000000001</v>
       </c>
       <c r="D5">
-        <v>635</v>
+        <v>575</v>
       </c>
       <c r="E5">
-        <v>10780.3955</v>
+        <v>10704.59185</v>
       </c>
       <c r="F5">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G5">
         <v>0.005622565804037638</v>
       </c>
       <c r="H5">
-        <v>5670.524127443678</v>
+        <v>5626.655589401842</v>
       </c>
       <c r="I5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5">
-        <v>1431536</v>
+        <v>1387967</v>
       </c>
       <c r="K5">
         <v>39</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>80271</v>
+        <v>80414</v>
       </c>
       <c r="F2">
-        <v>79902</v>
+        <v>80045</v>
       </c>
       <c r="G2">
-        <v>0.023343850322999998</v>
+        <v>0.023385436582</v>
       </c>
       <c r="H2">
-        <v>0.0307503270594</v>
+        <v>0.03080510769960001</v>
       </c>
     </row>
     <row r="3">
@@ -686,16 +686,16 @@
         <v>text/css</v>
       </c>
       <c r="E4">
-        <v>26253</v>
+        <v>4534</v>
       </c>
       <c r="F4">
         <v>25942</v>
       </c>
       <c r="G4">
-        <v>0.007634713688999999</v>
+        <v>0.001318546142</v>
       </c>
       <c r="H4">
-        <v>0.0100570359942</v>
+        <v>0.0017368910676000002</v>
       </c>
     </row>
     <row r="5">
@@ -865,16 +865,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E11">
-        <v>115760</v>
+        <v>115761</v>
       </c>
       <c r="F11">
         <v>115077</v>
       </c>
       <c r="G11">
-        <v>0.03366451288</v>
+        <v>0.033664803693</v>
       </c>
       <c r="H11">
-        <v>0.04434550286400001</v>
+        <v>0.0443458859454</v>
       </c>
     </row>
     <row r="12">
@@ -1073,16 +1073,16 @@
         <v>application/json</v>
       </c>
       <c r="E19">
-        <v>75540</v>
+        <v>77643</v>
       </c>
       <c r="F19">
-        <v>1296471</v>
+        <v>1256114</v>
       </c>
       <c r="G19">
-        <v>0.02196801402</v>
+        <v>0.022579593758999997</v>
       </c>
       <c r="H19">
-        <v>0.028937968955999996</v>
+        <v>0.029743589140200002</v>
       </c>
     </row>
     <row r="20">
@@ -1099,16 +1099,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E20">
-        <v>13618</v>
+        <v>13617</v>
       </c>
       <c r="F20">
         <v>45188</v>
       </c>
       <c r="G20">
-        <v>0.0039602914339999995</v>
+        <v>0.003960000621</v>
       </c>
       <c r="H20">
-        <v>0.0052168025052</v>
+        <v>0.0052164194238</v>
       </c>
     </row>
     <row r="21">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_170,h_170,c_fill,r_max/https://www.eidsvoll.kommune.no/contentassets/c1ef519fb2d1471c89f963b68b7f496f/adobestock_221072125.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_170,h_170,c_fill,r_max/https://www.eidsvoll.kommune.no/contentassets/c1ef519fb2d1471c89f963b68b7f496f/anne-2-budsjett.jpg</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
@@ -1177,16 +1177,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E23">
-        <v>6034</v>
+        <v>14543</v>
       </c>
       <c r="F23">
-        <v>5701</v>
+        <v>14199</v>
       </c>
       <c r="G23">
-        <v>0.0017547656419999997</v>
+        <v>0.004229293459</v>
       </c>
       <c r="H23">
-        <v>0.0023115131676</v>
+        <v>0.0055711528002</v>
       </c>
     </row>
     <row r="24">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.eidsvoll.kommune.no%2F%2Fcontentassets%2F6a2d723ccfde47fa8ceef38a88420eb5%2Fadobestock_374849482.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.eidsvoll.kommune.no%2F%2Fcontentassets%2Fd5678c13d50b4a64b65219b1fa4cd43b%2Fanne-2-budsjett.jpg</v>
       </c>
       <c r="C24" t="str">
         <v>Image</v>
@@ -1203,16 +1203,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>26896</v>
+        <v>34229</v>
       </c>
       <c r="F24">
-        <v>26544</v>
+        <v>33868</v>
       </c>
       <c r="G24">
-        <v>0.007821706448</v>
+        <v>0.009954238176999999</v>
       </c>
       <c r="H24">
-        <v>0.010303357334400002</v>
+        <v>0.013112493240600003</v>
       </c>
     </row>
     <row r="25">
@@ -1229,16 +1229,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E25">
-        <v>20811</v>
+        <v>20812</v>
       </c>
       <c r="F25">
         <v>20459</v>
       </c>
       <c r="G25">
-        <v>0.006052109342999999</v>
+        <v>0.006052400155999999</v>
       </c>
       <c r="H25">
-        <v>0.007972307015400002</v>
+        <v>0.0079726900968</v>
       </c>
     </row>
     <row r="26">
@@ -1255,16 +1255,16 @@
         <v>text/css</v>
       </c>
       <c r="E26">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F26">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G26">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H26">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="27">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1271&amp;luid=1b50fef3-fd47-a356-6959-afb4e6e1ede9&amp;dnt=true&amp;prev=9d354aa0-16da-040a-68fd-27c2173e78ce&amp;rnd=77633</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1173&amp;luid=7ba42fd7-b987-a632-b49b-a3a5cd150de7&amp;dnt=true&amp;prev=4f7023d8-3eb4-2a7b-acbc-11665d1aea7a&amp;rnd=84717</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
@@ -1405,22 +1405,19 @@
         <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C32" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="D32" t="str">
-        <v>text/json</v>
+        <v/>
       </c>
       <c r="E32">
-        <v>7415</v>
-      </c>
-      <c r="F32">
-        <v>28951</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.0021563783949999998</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.0028405485810000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1428,25 +1425,25 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-eidsvoll.svg?</v>
+        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
       </c>
       <c r="C33" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D33" t="str">
-        <v>image/svg+xml</v>
+        <v>text/json</v>
       </c>
       <c r="E33">
-        <v>25693</v>
+        <v>7412</v>
       </c>
       <c r="F33">
-        <v>25314</v>
+        <v>28951</v>
       </c>
       <c r="G33">
-        <v>0.007471858408999999</v>
+        <v>0.0021555059559999995</v>
       </c>
       <c r="H33">
-        <v>0.0098425104102</v>
+        <v>0.0028393993368000005</v>
       </c>
     </row>
     <row r="34">
@@ -1454,22 +1451,25 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://007prokom.boost.ai/api/chat_panel/v2</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/design_variations/kari-eidsvoll.svg?</v>
       </c>
       <c r="C34" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>image/svg+xml</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>25693</v>
+      </c>
+      <c r="F34">
+        <v>25314</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.007471858408999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.0098425104102</v>
       </c>
     </row>
     <row r="35">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dvevring_801071430.jpg%26dh%3D300%26dw%3D700</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLesestund_logo_1669606665.jpg%26dh%3D500%26dw%3D500</v>
       </c>
       <c r="C38" t="str">
         <v>Image</v>
@@ -1561,16 +1561,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E38">
-        <v>30167</v>
+        <v>19839</v>
       </c>
       <c r="F38">
-        <v>29788</v>
+        <v>19310</v>
       </c>
       <c r="G38">
-        <v>0.008772955770999999</v>
+        <v>0.0057694391069999995</v>
       </c>
       <c r="H38">
-        <v>0.0115564165938</v>
+        <v>0.007599951894600001</v>
       </c>
     </row>
     <row r="39">
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dstrikkering_1401180863.jpg%26dh%3D429%26dw%3D509</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_1918_1__1600216862.jpeg%26dh%3D650%26dw%3D800</v>
       </c>
       <c r="C39" t="str">
         <v>Image</v>
@@ -1587,16 +1587,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E39">
-        <v>27916</v>
+        <v>18790</v>
       </c>
       <c r="F39">
-        <v>27378</v>
+        <v>18451</v>
       </c>
       <c r="G39">
-        <v>0.008118335708</v>
+        <v>0.005464376269999999</v>
       </c>
       <c r="H39">
-        <v>0.0106941003624</v>
+        <v>0.007198099506</v>
       </c>
     </row>
     <row r="40">
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DBabysanggruppe_1927131820.jpg%26dh%3D533%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D6BD545E541A723F1667B7BDF2176C74770C921AD_73980569.png%26dh%3D600%26dw%3D800%26cropX%3D90%26cropY%3D0%26cropH%3D1080%26cropW%3D1440</v>
       </c>
       <c r="C40" t="str">
         <v>Image</v>
@@ -1613,16 +1613,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E40">
-        <v>42772</v>
+        <v>37454</v>
       </c>
       <c r="F40">
-        <v>42407</v>
+        <v>37065</v>
       </c>
       <c r="G40">
-        <v>0.012438653635999998</v>
+        <v>0.010892110101999999</v>
       </c>
       <c r="H40">
-        <v>0.016385157640800004</v>
+        <v>0.014347930755600001</v>
       </c>
     </row>
     <row r="41">
@@ -1639,16 +1639,16 @@
         <v>text/html</v>
       </c>
       <c r="E41">
-        <v>80271</v>
+        <v>80414</v>
       </c>
       <c r="F41">
-        <v>79902</v>
+        <v>80045</v>
       </c>
       <c r="G41">
-        <v>0.023343850322999998</v>
+        <v>0.023385436582</v>
       </c>
       <c r="H41">
-        <v>0.0307503270594</v>
+        <v>0.03080510769960001</v>
       </c>
     </row>
     <row r="42">
@@ -1691,16 +1691,16 @@
         <v>text/css</v>
       </c>
       <c r="E43">
-        <v>26253</v>
+        <v>4534</v>
       </c>
       <c r="F43">
         <v>25942</v>
       </c>
       <c r="G43">
-        <v>0.007634713688999999</v>
+        <v>0.001318546142</v>
       </c>
       <c r="H43">
-        <v>0.0100570359942</v>
+        <v>0.0017368910676000002</v>
       </c>
     </row>
     <row r="44">
@@ -2078,16 +2078,16 @@
         <v>application/json</v>
       </c>
       <c r="E58">
-        <v>75540</v>
+        <v>77643</v>
       </c>
       <c r="F58">
-        <v>1296471</v>
+        <v>1256114</v>
       </c>
       <c r="G58">
-        <v>0.02196801402</v>
+        <v>0.022579593758999997</v>
       </c>
       <c r="H58">
-        <v>0.028937968955999996</v>
+        <v>0.029743589140200002</v>
       </c>
     </row>
     <row r="59">
@@ -2104,16 +2104,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E59">
-        <v>13619</v>
+        <v>13622</v>
       </c>
       <c r="F59">
         <v>45188</v>
       </c>
       <c r="G59">
-        <v>0.003960582247</v>
+        <v>0.0039614546859999995</v>
       </c>
       <c r="H59">
-        <v>0.0052171855866</v>
+        <v>0.005218334830800001</v>
       </c>
     </row>
     <row r="60">
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_170,h_170,c_fill,r_max/https://www.eidsvoll.kommune.no/contentassets/c1ef519fb2d1471c89f963b68b7f496f/adobestock_221072125.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_170,h_170,c_fill,r_max/https://www.eidsvoll.kommune.no/contentassets/c1ef519fb2d1471c89f963b68b7f496f/anne-2-budsjett.jpg</v>
       </c>
       <c r="C62" t="str">
         <v>Image</v>
@@ -2182,16 +2182,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E62">
-        <v>6026</v>
+        <v>14534</v>
       </c>
       <c r="F62">
-        <v>5701</v>
+        <v>14199</v>
       </c>
       <c r="G62">
-        <v>0.0017524391379999998</v>
+        <v>0.004226676142</v>
       </c>
       <c r="H62">
-        <v>0.0023084485164000003</v>
+        <v>0.0055677050676</v>
       </c>
     </row>
     <row r="63">
@@ -2199,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.eidsvoll.kommune.no%2F%2Fcontentassets%2F6a2d723ccfde47fa8ceef38a88420eb5%2Fadobestock_374849482.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.eidsvoll.kommune.no%2F%2Fcontentassets%2Fd5678c13d50b4a64b65219b1fa4cd43b%2Fanne-2-budsjett.jpg</v>
       </c>
       <c r="C63" t="str">
         <v>Image</v>
@@ -2208,16 +2208,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E63">
-        <v>26897</v>
+        <v>34229</v>
       </c>
       <c r="F63">
-        <v>26544</v>
+        <v>33868</v>
       </c>
       <c r="G63">
-        <v>0.007821997260999998</v>
+        <v>0.009954238176999999</v>
       </c>
       <c r="H63">
-        <v>0.010303740415800003</v>
+        <v>0.013112493240600003</v>
       </c>
     </row>
     <row r="64">
@@ -2260,16 +2260,16 @@
         <v>text/css</v>
       </c>
       <c r="E65">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F65">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G65">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H65">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="66">
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1178&amp;luid=42571103-73ee-2896-9d43-b828befdceba&amp;dnt=true&amp;prev=7f28ca54-5902-5dee-ca92-e8d6a470b4e6&amp;rnd=35801</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1350&amp;luid=909da68e-9495-1479-151c-fd79662eaf3f&amp;dnt=true&amp;prev=b1f236c4-06f8-026c-87c6-1833cffb82a3&amp;rnd=16931</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
@@ -2465,16 +2465,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E73">
-        <v>25693</v>
+        <v>10396</v>
       </c>
       <c r="F73">
         <v>25314</v>
       </c>
       <c r="G73">
-        <v>0.007471858408999999</v>
+        <v>0.0030232919479999997</v>
       </c>
       <c r="H73">
-        <v>0.0098425104102</v>
+        <v>0.003982514234400001</v>
       </c>
     </row>
     <row r="74">
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="B77" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dvevring_801071430.jpg%26dh%3D300%26dw%3D700</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLesestund_logo_1669606665.jpg%26dh%3D500%26dw%3D500</v>
       </c>
       <c r="C77" t="str">
         <v>Image</v>
@@ -2566,16 +2566,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E77">
-        <v>30326</v>
+        <v>19839</v>
       </c>
       <c r="F77">
-        <v>29788</v>
+        <v>19310</v>
       </c>
       <c r="G77">
-        <v>0.008819195037999997</v>
+        <v>0.0057694391069999995</v>
       </c>
       <c r="H77">
-        <v>0.011617326536400002</v>
+        <v>0.007599951894600001</v>
       </c>
     </row>
     <row r="78">
@@ -2583,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="B78" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dstrikkering_1401180863.jpg%26dh%3D429%26dw%3D509</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_1918_1__1600216862.jpeg%26dh%3D650%26dw%3D800</v>
       </c>
       <c r="C78" t="str">
         <v>Image</v>
@@ -2592,16 +2592,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>27749</v>
+        <v>18813</v>
       </c>
       <c r="F78">
-        <v>27378</v>
+        <v>18451</v>
       </c>
       <c r="G78">
-        <v>0.008069769937</v>
+        <v>0.0054710649689999995</v>
       </c>
       <c r="H78">
-        <v>0.010630125768600002</v>
+        <v>0.007206910378200001</v>
       </c>
     </row>
     <row r="79">
@@ -2609,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DBabysanggruppe_1927131820.jpg%26dh%3D533%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D6BD545E541A723F1667B7BDF2176C74770C921AD_73980569.png%26dh%3D600%26dw%3D800%26cropX%3D90%26cropY%3D0%26cropH%3D1080%26cropW%3D1440</v>
       </c>
       <c r="C79" t="str">
         <v>Image</v>
@@ -2618,16 +2618,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E79">
-        <v>42773</v>
+        <v>37431</v>
       </c>
       <c r="F79">
-        <v>42407</v>
+        <v>37065</v>
       </c>
       <c r="G79">
-        <v>0.012438944448999999</v>
+        <v>0.010885421402999999</v>
       </c>
       <c r="H79">
-        <v>0.0163855407222</v>
+        <v>0.0143391198834</v>
       </c>
     </row>
     <row r="80">
@@ -2644,16 +2644,16 @@
         <v>text/html</v>
       </c>
       <c r="E80">
-        <v>80271</v>
+        <v>80414</v>
       </c>
       <c r="F80">
-        <v>79902</v>
+        <v>80045</v>
       </c>
       <c r="G80">
-        <v>0.023343850322999998</v>
+        <v>0.023385436582</v>
       </c>
       <c r="H80">
-        <v>0.0307503270594</v>
+        <v>0.03080510769960001</v>
       </c>
     </row>
     <row r="81">
@@ -2696,16 +2696,16 @@
         <v>text/css</v>
       </c>
       <c r="E82">
-        <v>26253</v>
+        <v>4534</v>
       </c>
       <c r="F82">
         <v>25942</v>
       </c>
       <c r="G82">
-        <v>0.007634713688999999</v>
+        <v>0.001318546142</v>
       </c>
       <c r="H82">
-        <v>0.0100570359942</v>
+        <v>0.0017368910676000002</v>
       </c>
     </row>
     <row r="83">
@@ -2875,16 +2875,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E89">
-        <v>115760</v>
+        <v>115761</v>
       </c>
       <c r="F89">
         <v>115077</v>
       </c>
       <c r="G89">
-        <v>0.03366451288</v>
+        <v>0.033664803693</v>
       </c>
       <c r="H89">
-        <v>0.04434550286400001</v>
+        <v>0.0443458859454</v>
       </c>
     </row>
     <row r="90">
@@ -3083,16 +3083,16 @@
         <v>application/json</v>
       </c>
       <c r="E97">
-        <v>75540</v>
+        <v>77643</v>
       </c>
       <c r="F97">
-        <v>1296471</v>
+        <v>1256114</v>
       </c>
       <c r="G97">
-        <v>0.02196801402</v>
+        <v>0.022579593758999997</v>
       </c>
       <c r="H97">
-        <v>0.028937968955999996</v>
+        <v>0.029743589140200002</v>
       </c>
     </row>
     <row r="98">
@@ -3109,16 +3109,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E98">
-        <v>13613</v>
+        <v>13622</v>
       </c>
       <c r="F98">
         <v>45188</v>
       </c>
       <c r="G98">
-        <v>0.003958837369</v>
+        <v>0.0039614546859999995</v>
       </c>
       <c r="H98">
-        <v>0.005214887098200001</v>
+        <v>0.005218334830800001</v>
       </c>
     </row>
     <row r="99">
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="B101" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_170,h_170,c_fill,r_max/https://www.eidsvoll.kommune.no/contentassets/c1ef519fb2d1471c89f963b68b7f496f/adobestock_221072125.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_170,h_170,c_fill,r_max/https://www.eidsvoll.kommune.no/contentassets/c1ef519fb2d1471c89f963b68b7f496f/anne-2-budsjett.jpg</v>
       </c>
       <c r="C101" t="str">
         <v>Image</v>
@@ -3187,16 +3187,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E101">
-        <v>6026</v>
+        <v>14542</v>
       </c>
       <c r="F101">
-        <v>5701</v>
+        <v>14199</v>
       </c>
       <c r="G101">
-        <v>0.0017524391379999998</v>
+        <v>0.004229002646</v>
       </c>
       <c r="H101">
-        <v>0.0023084485164000003</v>
+        <v>0.005570769718800001</v>
       </c>
     </row>
     <row r="102">
@@ -3204,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.eidsvoll.kommune.no%2F%2Fcontentassets%2F6a2d723ccfde47fa8ceef38a88420eb5%2Fadobestock_374849482.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Ftestweb.eidsvoll.kommune.no%2F%2Fcontentassets%2Fd5678c13d50b4a64b65219b1fa4cd43b%2Fanne-2-budsjett.jpg</v>
       </c>
       <c r="C102" t="str">
         <v>Image</v>
@@ -3213,16 +3213,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E102">
-        <v>26896</v>
+        <v>34229</v>
       </c>
       <c r="F102">
-        <v>26544</v>
+        <v>33868</v>
       </c>
       <c r="G102">
-        <v>0.007821706448</v>
+        <v>0.009954238176999999</v>
       </c>
       <c r="H102">
-        <v>0.010303357334400002</v>
+        <v>0.013112493240600003</v>
       </c>
     </row>
     <row r="103">
@@ -3239,16 +3239,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E103">
-        <v>20812</v>
+        <v>20802</v>
       </c>
       <c r="F103">
         <v>20459</v>
       </c>
       <c r="G103">
-        <v>0.006052400155999999</v>
+        <v>0.006049492026</v>
       </c>
       <c r="H103">
-        <v>0.0079726900968</v>
+        <v>0.0079688592828</v>
       </c>
     </row>
     <row r="104">
@@ -3265,16 +3265,16 @@
         <v>text/css</v>
       </c>
       <c r="E104">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F104">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G104">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H104">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="105">
@@ -3291,16 +3291,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E105">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F105">
         <v>1249958</v>
       </c>
       <c r="G105">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H105">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="106">
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1233&amp;luid=73d069a8-e039-6bd0-d46a-d1040c056eaa&amp;dnt=true&amp;prev=ae3ffbef-7c04-c0df-8aa4-95d843d5280b&amp;rnd=38851</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1174&amp;luid=df6e8443-e3f4-b358-c39d-b0080b20b394&amp;dnt=true&amp;prev=f11ac969-01c0-14fb-5a2a-0fbad343a05f&amp;rnd=9442</v>
       </c>
       <c r="C106" t="str">
         <v>Image</v>
@@ -3444,16 +3444,16 @@
         <v>text/json</v>
       </c>
       <c r="E111">
-        <v>7415</v>
+        <v>7414</v>
       </c>
       <c r="F111">
         <v>28951</v>
       </c>
       <c r="G111">
-        <v>0.0021563783949999998</v>
+        <v>0.0021560875819999995</v>
       </c>
       <c r="H111">
-        <v>0.0028405485810000003</v>
+        <v>0.0028401654996000002</v>
       </c>
     </row>
     <row r="112">
@@ -3470,16 +3470,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E112">
-        <v>25693</v>
+        <v>10396</v>
       </c>
       <c r="F112">
         <v>25314</v>
       </c>
       <c r="G112">
-        <v>0.007471858408999999</v>
+        <v>0.0030232919479999997</v>
       </c>
       <c r="H112">
-        <v>0.0098425104102</v>
+        <v>0.003982514234400001</v>
       </c>
     </row>
     <row r="113">
@@ -3562,7 +3562,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dvevring_801071430.jpg%26dh%3D300%26dw%3D700</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DLesestund_logo_1669606665.jpg%26dh%3D500%26dw%3D500</v>
       </c>
       <c r="C116" t="str">
         <v>Image</v>
@@ -3571,16 +3571,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E116">
-        <v>30327</v>
+        <v>19839</v>
       </c>
       <c r="F116">
-        <v>29788</v>
+        <v>19310</v>
       </c>
       <c r="G116">
-        <v>0.008819485850999998</v>
+        <v>0.0057694391069999995</v>
       </c>
       <c r="H116">
-        <v>0.0116177096178</v>
+        <v>0.007599951894600001</v>
       </c>
     </row>
     <row r="117">
@@ -3588,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3Dstrikkering_1401180863.jpg%26dh%3D429%26dw%3D509</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DIMG_1918_1__1600216862.jpeg%26dh%3D650%26dw%3D800</v>
       </c>
       <c r="C117" t="str">
         <v>Image</v>
@@ -3597,16 +3597,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E117">
-        <v>27749</v>
+        <v>18813</v>
       </c>
       <c r="F117">
-        <v>27378</v>
+        <v>18451</v>
       </c>
       <c r="G117">
-        <v>0.008069769937</v>
+        <v>0.0054710649689999995</v>
       </c>
       <c r="H117">
-        <v>0.010630125768600002</v>
+        <v>0.007206910378200001</v>
       </c>
     </row>
     <row r="118">
@@ -3614,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3DBabysanggruppe_1927131820.jpg%26dh%3D533%26dw%3D800</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_364,h_233,c_fill/https%3A%2F%2Fmedia.newmindmedia.com%2FTellUs%2Fimage%2F%3Ffile%3D6BD545E541A723F1667B7BDF2176C74770C921AD_73980569.png%26dh%3D600%26dw%3D800%26cropX%3D90%26cropY%3D0%26cropH%3D1080%26cropW%3D1440</v>
       </c>
       <c r="C118" t="str">
         <v>Image</v>
@@ -3623,16 +3623,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E118">
-        <v>42773</v>
+        <v>37431</v>
       </c>
       <c r="F118">
-        <v>42407</v>
+        <v>37065</v>
       </c>
       <c r="G118">
-        <v>0.012438944448999999</v>
+        <v>0.010885421402999999</v>
       </c>
       <c r="H118">
-        <v>0.0163855407222</v>
+        <v>0.0143391198834</v>
       </c>
     </row>
   </sheetData>
@@ -3671,10 +3671,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>240813</v>
+        <v>241242</v>
       </c>
       <c r="D2">
-        <v>239706</v>
+        <v>240135</v>
       </c>
     </row>
     <row r="3">
@@ -3685,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>280962</v>
+        <v>215805</v>
       </c>
       <c r="D3">
         <v>1323609</v>
@@ -3699,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>2310956</v>
+        <v>2310976</v>
       </c>
       <c r="D4">
         <v>8554152</v>
@@ -3727,10 +3727,10 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>1009319</v>
+        <v>951946</v>
       </c>
       <c r="D6">
-        <v>992724</v>
+        <v>965949</v>
       </c>
     </row>
     <row r="7">
@@ -3741,38 +3741,38 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>292791</v>
+        <v>299451</v>
       </c>
       <c r="D7">
-        <v>4657230</v>
+        <v>4539942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>22245</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>86853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>22241</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>86853</v>
       </c>
     </row>
     <row r="10">
@@ -3836,13 +3836,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1431556</v>
+        <v>1403268</v>
       </c>
       <c r="C2">
-        <v>0.41631509502799996</v>
+        <v>0.40808857688399996</v>
       </c>
       <c r="D2">
-        <v>0.5484024766584</v>
+        <v>0.5375658700152001</v>
       </c>
     </row>
     <row r="3">
@@ -3850,13 +3850,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1431536</v>
+        <v>1387961</v>
       </c>
       <c r="C3">
-        <v>0.4163092787679999</v>
+        <v>0.4036371022929999</v>
       </c>
       <c r="D3">
-        <v>0.5483948150304001</v>
+        <v>0.5317020430254</v>
       </c>
     </row>
     <row r="4">
@@ -3864,13 +3864,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1431529</v>
+        <v>1387967</v>
       </c>
       <c r="C4">
-        <v>0.41630724307699996</v>
+        <v>0.40363884717099996</v>
       </c>
       <c r="D4">
-        <v>0.5483921334606</v>
+        <v>0.5317043415138</v>
       </c>
     </row>
     <row r="5">
@@ -3878,13 +3878,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1431536</v>
+        <v>1387967</v>
       </c>
       <c r="C5">
-        <v>0.4163092787679999</v>
+        <v>0.40363884717099996</v>
       </c>
       <c r="D5">
-        <v>0.5483948150304001</v>
+        <v>0.5317043415138</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.eidsvoll.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.eidsvoll.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5876.948</v>
+        <v>6115.227500000001</v>
       </c>
       <c r="C2">
-        <v>4709.352000000001</v>
+        <v>4750.6805</v>
       </c>
       <c r="D2">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="E2">
-        <v>10601.805100000001</v>
+        <v>10765.8697</v>
       </c>
       <c r="F2">
-        <v>138</v>
+        <v>104.5</v>
       </c>
       <c r="G2">
         <v>0.005622565804037638</v>
       </c>
       <c r="H2">
-        <v>5484.563178785173</v>
+        <v>5644.128178592806</v>
       </c>
       <c r="I2">
         <v>64</v>
       </c>
       <c r="J2">
-        <v>1403268</v>
+        <v>1403275</v>
       </c>
       <c r="K2">
         <v>39</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5977.017</v>
+        <v>6010.9565</v>
       </c>
       <c r="C3">
-        <v>4697.207</v>
+        <v>4734.9565</v>
       </c>
       <c r="D3">
-        <v>722</v>
+        <v>537</v>
       </c>
       <c r="E3">
-        <v>10704.59185</v>
+        <v>10791.7395</v>
       </c>
       <c r="F3">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="G3">
         <v>0.005622565804037638</v>
       </c>
       <c r="H3">
-        <v>5825.971693900698</v>
+        <v>5289.381950203993</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>1387961</v>
+        <v>1403353</v>
       </c>
       <c r="K3">
         <v>39</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5880.314</v>
+        <v>6016.4619999999995</v>
       </c>
       <c r="C4">
-        <v>4710.008</v>
+        <v>4667.744</v>
       </c>
       <c r="D4">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E4">
-        <v>10732.30855</v>
+        <v>10808.1823</v>
       </c>
       <c r="F4">
-        <v>123</v>
+        <v>92.5</v>
       </c>
       <c r="G4">
         <v>0.005622565804037638</v>
       </c>
       <c r="H4">
-        <v>5626.655589401842</v>
+        <v>5593.44662833653</v>
       </c>
       <c r="I4">
         <v>64</v>
       </c>
       <c r="J4">
-        <v>1387967</v>
+        <v>1403258</v>
       </c>
       <c r="K4">
         <v>39</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>5880.314</v>
+        <v>6016.4619999999995</v>
       </c>
       <c r="C5">
-        <v>4709.352000000001</v>
+        <v>4734.9565</v>
       </c>
       <c r="D5">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E5">
-        <v>10704.59185</v>
+        <v>10791.7395</v>
       </c>
       <c r="F5">
-        <v>138</v>
+        <v>104.5</v>
       </c>
       <c r="G5">
         <v>0.005622565804037638</v>
       </c>
       <c r="H5">
-        <v>5626.655589401842</v>
+        <v>5593.44662833653</v>
       </c>
       <c r="I5">
         <v>64</v>
       </c>
       <c r="J5">
-        <v>1387967</v>
+        <v>1403275</v>
       </c>
       <c r="K5">
         <v>39</v>
@@ -1099,16 +1099,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E20">
-        <v>13617</v>
+        <v>13620</v>
       </c>
       <c r="F20">
         <v>45188</v>
       </c>
       <c r="G20">
-        <v>0.003960000621</v>
+        <v>0.00396087306</v>
       </c>
       <c r="H20">
-        <v>0.0052164194238</v>
+        <v>0.0052175686680000005</v>
       </c>
     </row>
     <row r="21">
@@ -1203,16 +1203,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>34229</v>
+        <v>34230</v>
       </c>
       <c r="F24">
         <v>33868</v>
       </c>
       <c r="G24">
-        <v>0.009954238176999999</v>
+        <v>0.00995452899</v>
       </c>
       <c r="H24">
-        <v>0.013112493240600003</v>
+        <v>0.013112876322</v>
       </c>
     </row>
     <row r="25">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1173&amp;luid=7ba42fd7-b987-a632-b49b-a3a5cd150de7&amp;dnt=true&amp;prev=4f7023d8-3eb4-2a7b-acbc-11665d1aea7a&amp;rnd=84717</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1177&amp;luid=1129b132-08aa-6573-f179-ef1bf3c61d85&amp;dnt=true&amp;prev=db24778c-0785-37a1-a0b0-4ea1d9e74650&amp;rnd=71683</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
@@ -1434,16 +1434,16 @@
         <v>text/json</v>
       </c>
       <c r="E33">
-        <v>7412</v>
+        <v>7415</v>
       </c>
       <c r="F33">
         <v>28951</v>
       </c>
       <c r="G33">
-        <v>0.0021555059559999995</v>
+        <v>0.0021563783949999998</v>
       </c>
       <c r="H33">
-        <v>0.0028393993368000005</v>
+        <v>0.0028405485810000003</v>
       </c>
     </row>
     <row r="34">
@@ -1561,16 +1561,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E38">
-        <v>19839</v>
+        <v>19680</v>
       </c>
       <c r="F38">
         <v>19310</v>
       </c>
       <c r="G38">
-        <v>0.0057694391069999995</v>
+        <v>0.005723199839999999</v>
       </c>
       <c r="H38">
-        <v>0.007599951894600001</v>
+        <v>0.007539041952</v>
       </c>
     </row>
     <row r="39">
@@ -1613,16 +1613,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E40">
-        <v>37454</v>
+        <v>37613</v>
       </c>
       <c r="F40">
         <v>37065</v>
       </c>
       <c r="G40">
-        <v>0.010892110101999999</v>
+        <v>0.010938349368999999</v>
       </c>
       <c r="H40">
-        <v>0.014347930755600001</v>
+        <v>0.014408840698200002</v>
       </c>
     </row>
     <row r="41">
@@ -1665,16 +1665,16 @@
         <v>text/css</v>
       </c>
       <c r="E42">
-        <v>2377</v>
+        <v>2486</v>
       </c>
       <c r="F42">
         <v>20045</v>
       </c>
       <c r="G42">
-        <v>0.000691262501</v>
+        <v>0.0007229611179999999</v>
       </c>
       <c r="H42">
-        <v>0.0009105844877999999</v>
+        <v>0.0009523403604000001</v>
       </c>
     </row>
     <row r="43">
@@ -2104,16 +2104,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E59">
-        <v>13622</v>
+        <v>13616</v>
       </c>
       <c r="F59">
         <v>45188</v>
       </c>
       <c r="G59">
-        <v>0.0039614546859999995</v>
+        <v>0.003959709808</v>
       </c>
       <c r="H59">
-        <v>0.005218334830800001</v>
+        <v>0.005216036342400001</v>
       </c>
     </row>
     <row r="60">
@@ -2208,16 +2208,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E63">
-        <v>34229</v>
+        <v>34230</v>
       </c>
       <c r="F63">
         <v>33868</v>
       </c>
       <c r="G63">
-        <v>0.009954238176999999</v>
+        <v>0.00995452899</v>
       </c>
       <c r="H63">
-        <v>0.013112493240600003</v>
+        <v>0.013112876322</v>
       </c>
     </row>
     <row r="64">
@@ -2234,16 +2234,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E64">
-        <v>20812</v>
+        <v>20803</v>
       </c>
       <c r="F64">
         <v>20459</v>
       </c>
       <c r="G64">
-        <v>0.006052400155999999</v>
+        <v>0.006049782839</v>
       </c>
       <c r="H64">
-        <v>0.0079726900968</v>
+        <v>0.007969242364200001</v>
       </c>
     </row>
     <row r="65">
@@ -2286,16 +2286,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E66">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F66">
         <v>1249958</v>
       </c>
       <c r="G66">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H66">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="67">
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1350&amp;luid=909da68e-9495-1479-151c-fd79662eaf3f&amp;dnt=true&amp;prev=b1f236c4-06f8-026c-87c6-1833cffb82a3&amp;rnd=16931</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1201&amp;luid=12083ec0-8853-27d0-1f9f-c5c52fd339cd&amp;dnt=true&amp;prev=65ddf5cf-a0c4-41be-78ba-50426666bf33&amp;rnd=93203</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
@@ -2465,16 +2465,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E73">
-        <v>10396</v>
+        <v>25693</v>
       </c>
       <c r="F73">
         <v>25314</v>
       </c>
       <c r="G73">
-        <v>0.0030232919479999997</v>
+        <v>0.007471858408999999</v>
       </c>
       <c r="H73">
-        <v>0.003982514234400001</v>
+        <v>0.0098425104102</v>
       </c>
     </row>
     <row r="74">
@@ -2566,16 +2566,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E77">
-        <v>19839</v>
+        <v>19671</v>
       </c>
       <c r="F77">
         <v>19310</v>
       </c>
       <c r="G77">
-        <v>0.0057694391069999995</v>
+        <v>0.005720582522999999</v>
       </c>
       <c r="H77">
-        <v>0.007599951894600001</v>
+        <v>0.0075355942194</v>
       </c>
     </row>
     <row r="78">
@@ -2592,16 +2592,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>18813</v>
+        <v>18790</v>
       </c>
       <c r="F78">
         <v>18451</v>
       </c>
       <c r="G78">
-        <v>0.0054710649689999995</v>
+        <v>0.005464376269999999</v>
       </c>
       <c r="H78">
-        <v>0.007206910378200001</v>
+        <v>0.007198099506</v>
       </c>
     </row>
     <row r="79">
@@ -2618,16 +2618,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E79">
-        <v>37431</v>
+        <v>37613</v>
       </c>
       <c r="F79">
         <v>37065</v>
       </c>
       <c r="G79">
-        <v>0.010885421402999999</v>
+        <v>0.010938349368999999</v>
       </c>
       <c r="H79">
-        <v>0.0143391198834</v>
+        <v>0.014408840698200002</v>
       </c>
     </row>
     <row r="80">
@@ -2875,16 +2875,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E89">
-        <v>115761</v>
+        <v>115762</v>
       </c>
       <c r="F89">
         <v>115077</v>
       </c>
       <c r="G89">
-        <v>0.033664803693</v>
+        <v>0.033665094506</v>
       </c>
       <c r="H89">
-        <v>0.0443458859454</v>
+        <v>0.0443462690268</v>
       </c>
     </row>
     <row r="90">
@@ -3083,16 +3083,16 @@
         <v>application/json</v>
       </c>
       <c r="E97">
-        <v>77643</v>
+        <v>77644</v>
       </c>
       <c r="F97">
         <v>1256114</v>
       </c>
       <c r="G97">
-        <v>0.022579593758999997</v>
+        <v>0.022579884571999997</v>
       </c>
       <c r="H97">
-        <v>0.029743589140200002</v>
+        <v>0.029743972221600006</v>
       </c>
     </row>
     <row r="98">
@@ -3109,16 +3109,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E98">
-        <v>13622</v>
+        <v>13615</v>
       </c>
       <c r="F98">
         <v>45188</v>
       </c>
       <c r="G98">
-        <v>0.0039614546859999995</v>
+        <v>0.003959418994999999</v>
       </c>
       <c r="H98">
-        <v>0.005218334830800001</v>
+        <v>0.005215653261000001</v>
       </c>
     </row>
     <row r="99">
@@ -3187,16 +3187,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E101">
-        <v>14542</v>
+        <v>14543</v>
       </c>
       <c r="F101">
         <v>14199</v>
       </c>
       <c r="G101">
-        <v>0.004229002646</v>
+        <v>0.004229293459</v>
       </c>
       <c r="H101">
-        <v>0.005570769718800001</v>
+        <v>0.0055711528002</v>
       </c>
     </row>
     <row r="102">
@@ -3213,16 +3213,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E102">
-        <v>34229</v>
+        <v>34230</v>
       </c>
       <c r="F102">
         <v>33868</v>
       </c>
       <c r="G102">
-        <v>0.009954238176999999</v>
+        <v>0.00995452899</v>
       </c>
       <c r="H102">
-        <v>0.013112493240600003</v>
+        <v>0.013112876322</v>
       </c>
     </row>
     <row r="103">
@@ -3239,16 +3239,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E103">
-        <v>20802</v>
+        <v>20812</v>
       </c>
       <c r="F103">
         <v>20459</v>
       </c>
       <c r="G103">
-        <v>0.006049492026</v>
+        <v>0.006052400155999999</v>
       </c>
       <c r="H103">
-        <v>0.0079688592828</v>
+        <v>0.0079726900968</v>
       </c>
     </row>
     <row r="104">
@@ -3291,16 +3291,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E105">
-        <v>325294</v>
+        <v>325286</v>
       </c>
       <c r="F105">
         <v>1249958</v>
       </c>
       <c r="G105">
-        <v>0.09459972402199998</v>
+        <v>0.09459739751799999</v>
       </c>
       <c r="H105">
-        <v>0.12461408093160001</v>
+        <v>0.1246110162804</v>
       </c>
     </row>
     <row r="106">
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1174&amp;luid=df6e8443-e3f4-b358-c39d-b0080b20b394&amp;dnt=true&amp;prev=f11ac969-01c0-14fb-5a2a-0fbad343a05f&amp;rnd=9442</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.eidsvoll.kommune.no%2F&amp;title=Forsiden%20-%20eidsvoll%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1179&amp;luid=b95ba925-4fff-8775-134e-1bf45a30b11f&amp;dnt=true&amp;prev=d5850cd8-92d1-f036-8f8e-fe55df786df0&amp;rnd=84032</v>
       </c>
       <c r="C106" t="str">
         <v>Image</v>
@@ -3317,16 +3317,16 @@
         <v>image/gif</v>
       </c>
       <c r="E106">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F106">
         <v>34</v>
       </c>
       <c r="G106">
-        <v>0.00006107072999999999</v>
+        <v>0.000061652356</v>
       </c>
       <c r="H106">
-        <v>0.00008044709400000001</v>
+        <v>0.00008121325679999999</v>
       </c>
     </row>
     <row r="107">
@@ -3444,16 +3444,16 @@
         <v>text/json</v>
       </c>
       <c r="E111">
-        <v>7414</v>
+        <v>7415</v>
       </c>
       <c r="F111">
         <v>28951</v>
       </c>
       <c r="G111">
-        <v>0.0021560875819999995</v>
+        <v>0.0021563783949999998</v>
       </c>
       <c r="H111">
-        <v>0.0028401654996000002</v>
+        <v>0.0028405485810000003</v>
       </c>
     </row>
     <row r="112">
@@ -3470,16 +3470,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E112">
-        <v>10396</v>
+        <v>25693</v>
       </c>
       <c r="F112">
         <v>25314</v>
       </c>
       <c r="G112">
-        <v>0.0030232919479999997</v>
+        <v>0.007471858408999999</v>
       </c>
       <c r="H112">
-        <v>0.003982514234400001</v>
+        <v>0.0098425104102</v>
       </c>
     </row>
     <row r="113">
@@ -3571,16 +3571,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E116">
-        <v>19839</v>
+        <v>19830</v>
       </c>
       <c r="F116">
         <v>19310</v>
       </c>
       <c r="G116">
-        <v>0.0057694391069999995</v>
+        <v>0.0057668217899999995</v>
       </c>
       <c r="H116">
-        <v>0.007599951894600001</v>
+        <v>0.007596504162000002</v>
       </c>
     </row>
     <row r="117">
@@ -3597,16 +3597,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E117">
-        <v>18813</v>
+        <v>18790</v>
       </c>
       <c r="F117">
         <v>18451</v>
       </c>
       <c r="G117">
-        <v>0.0054710649689999995</v>
+        <v>0.005464376269999999</v>
       </c>
       <c r="H117">
-        <v>0.007206910378200001</v>
+        <v>0.007198099506</v>
       </c>
     </row>
     <row r="118">
@@ -3623,16 +3623,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E118">
-        <v>37431</v>
+        <v>37455</v>
       </c>
       <c r="F118">
         <v>37065</v>
       </c>
       <c r="G118">
-        <v>0.010885421402999999</v>
+        <v>0.010892400914999998</v>
       </c>
       <c r="H118">
-        <v>0.0143391198834</v>
+        <v>0.014348313837</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>215805</v>
+        <v>215914</v>
       </c>
       <c r="D3">
         <v>1323609</v>
@@ -3699,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>2310976</v>
+        <v>2310967</v>
       </c>
       <c r="D4">
         <v>8554152</v>
@@ -3727,7 +3727,7 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>951946</v>
+        <v>982531</v>
       </c>
       <c r="D6">
         <v>965949</v>
@@ -3741,7 +3741,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>299451</v>
+        <v>299452</v>
       </c>
       <c r="D7">
         <v>4539942</v>
@@ -3769,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>22241</v>
+        <v>22245</v>
       </c>
       <c r="D9">
         <v>86853</v>
@@ -3836,13 +3836,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1403268</v>
+        <v>1403275</v>
       </c>
       <c r="C2">
-        <v>0.40808857688399996</v>
+        <v>0.4080906125749999</v>
       </c>
       <c r="D2">
-        <v>0.5375658700152001</v>
+        <v>0.5375685515850002</v>
       </c>
     </row>
     <row r="3">
@@ -3850,13 +3850,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1387961</v>
+        <v>1403353</v>
       </c>
       <c r="C3">
-        <v>0.4036371022929999</v>
+        <v>0.4081132959889999</v>
       </c>
       <c r="D3">
-        <v>0.5317020430254</v>
+        <v>0.5375984319342001</v>
       </c>
     </row>
     <row r="4">
@@ -3864,13 +3864,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1387967</v>
+        <v>1403258</v>
       </c>
       <c r="C4">
-        <v>0.40363884717099996</v>
+        <v>0.408085668754</v>
       </c>
       <c r="D4">
-        <v>0.5317043415138</v>
+        <v>0.5375620392011999</v>
       </c>
     </row>
     <row r="5">
@@ -3878,13 +3878,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1387967</v>
+        <v>1403275</v>
       </c>
       <c r="C5">
-        <v>0.40363884717099996</v>
+        <v>0.4080906125749999</v>
       </c>
       <c r="D5">
-        <v>0.5317043415138</v>
+        <v>0.5375685515850002</v>
       </c>
     </row>
   </sheetData>
